--- a/biology/Microbiologie/Pelomonas/Pelomonas.xlsx
+++ b/biology/Microbiologie/Pelomonas/Pelomonas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelomonas est un genre de bactéries à coloration Gram négative de la famille des Comamonadaceae (ordre des Burkholderiales, classe des Betaproteobacteria).
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Pelomonas a été créé en 2005 par les bactériologistes et microbiologistes japonais Cheng-Hui Xie (d) et Akira Yokota (d)[1],[2].
-L'espèce type, Pelomonas saccharophila, a été initialement décrite en 1940 par le microbiologiste américain Michael Doudoroff (d) (1911-1975) sous le basionyme Pseudomonas saccharophila[3] puis reclassée en 2005 dans le genre Pelomonas par Xie et Yokota.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Pelomonas a été créé en 2005 par les bactériologistes et microbiologistes japonais Cheng-Hui Xie (d) et Akira Yokota (d),.
+L'espèce type, Pelomonas saccharophila, a été initialement décrite en 1940 par le microbiologiste américain Michael Doudoroff (d) (1911-1975) sous le basionyme Pseudomonas saccharophila puis reclassée en 2005 dans le genre Pelomonas par Xie et Yokota.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Pelomonas, signifie « bactérie de la vase » (du grec pelos, « la vase », et du grec monas, « l'unité, bactérie »)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Pelomonas, signifie « bactérie de la vase » (du grec pelos, « la vase », et du grec monas, « l'unité, bactérie »).
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des bacilles de 3,0 à 4,0 μm de long et 0,5 μm de diamètre. Les cellules sont motiles à l'aide d'un seul flagelle polaire.
 </t>
@@ -605,7 +623,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les colonies sont grises, rondes et opaques, croissant dans un plage de température de 15 à 42 °C avec un optimum entre 30 et 35 °C. La croissance est inhibée à une concentration supérieure à 2,5%.
 Elles peuvent pousser sur milieu de culture sélectif composé de KH2O4, 4,4 g ; Na2HPO4, 4,8 g ; NH4Cl, 1,0 g ; MgSO4,7H2O, 0,5 g ; citrate d'ammonium ferrique, 50,0 mg ; CaCl2, 6,5 mg ; saccharose, 1,0 g ; eau distillée, 1,0 l.
@@ -637,7 +657,9 @@
           <t>Métabolisme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cellules accumulent des granules de PHB.
 Des activités catalase et oxydase sont détectées.
@@ -676,9 +698,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Pelomonas vivent dans les sédiments[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Pelomonas vivent dans les sédiments.
 </t>
         </is>
       </c>
@@ -707,12 +731,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Selon la LPSN - List of Prokaryotic names with Standing in Nomenclature[4] le genre Pelomonas est représenté par trois espèces :
-Pelomonas aquatica Gomila et al., 2007[5]
-Pelomonas puraquae Gomila et al., 2007[5]
-Pelomonas saccharophila (Doudoroff, 1940) Xie &amp; Yokota, 2005[1]</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon la LPSN - List of Prokaryotic names with Standing in Nomenclature le genre Pelomonas est représenté par trois espèces :
+Pelomonas aquatica Gomila et al., 2007
+Pelomonas puraquae Gomila et al., 2007
+Pelomonas saccharophila (Doudoroff, 1940) Xie &amp; Yokota, 2005</t>
         </is>
       </c>
     </row>
@@ -740,7 +766,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>(en) Cheng-Hui Xie et Akira Yokota, « Reclassification of Alcaligenes latus strains IAM 12599T and IAM 12664 and Pseudomonas saccharophila as Azohydromonas lata gen. nov., comb. nov., Azohydromonas australica sp. nov. and Pelomonas saccharophila gen. nov., comb. nov., respectively », International Journal of Systematic and Evolutionary Microbiology, Society for General Microbiology (d), vol. 55, no 6,‎ 1er novembre 2005, p. 2419-2425 (ISSN 1466-5026 et 1466-5034, OCLC 807119723, PMID 16280506, DOI 10.1099/IJS.0.63733-0, lire en ligne)
 et son correctif (en) Cheng-Hui Xie et Akira Yokota, « Reclassification of Alcaligenes latus strains IAM 12599T and IAM 12664 and Pseudomonas saccharophila as Azohydromonas lata gen. nov., comb. nov., Azohydromonas australica sp. nov. and Pelomonas saccharophila gen. nov., comb. nov., respectively », International Journal of Systematic and Evolutionary Microbiology, Society for General Microbiology (d), vol. 56, no 2,‎ 1er février 2006, p. 497 (ISSN 1466-5026 et 1466-5034, OCLC 807119723, DOI 10.1099/00207713-56-2-497)</t>
